--- a/Deliverables/Testing/RISFX Testing.xlsx
+++ b/Deliverables/Testing/RISFX Testing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alec\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{051071D7-BF55-4871-B98C-FBC0D46DB0D4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DCD5ED5-8B45-4EF4-B55B-803C86D0F392}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{2B89AB3E-804F-4D6D-8F01-C1FD2BF5D4AB}"/>
+    <workbookView xWindow="14055" yWindow="2985" windowWidth="23370" windowHeight="15435" xr2:uid="{2B89AB3E-804F-4D6D-8F01-C1FD2BF5D4AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="170">
   <si>
     <t>Technician</t>
   </si>
@@ -516,12 +516,6 @@
     <t>Suggested Fix</t>
   </si>
   <si>
-    <t>Unhide the referal button for refering physicians</t>
-  </si>
-  <si>
-    <t>Allow the refering physician the ability to add a patient themselves</t>
-  </si>
-  <si>
     <t>Implement the same code as the employee scheduling</t>
   </si>
   <si>
@@ -535,6 +529,18 @@
   </si>
   <si>
     <t>As of 4/18/2019</t>
+  </si>
+  <si>
+    <t>Click on 'Patient List'</t>
+  </si>
+  <si>
+    <t>valid patient data</t>
+  </si>
+  <si>
+    <t>Physician is able to fill out patient data</t>
+  </si>
+  <si>
+    <t>Physician is able to submit patient data</t>
   </si>
 </sst>
 </file>
@@ -699,9 +705,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -717,6 +720,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -977,7 +981,37 @@
       </border>
     </dxf>
     <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1014,36 +1048,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1058,7 +1062,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{0C956D62-76A4-41B5-9364-D5D8EEE96211}" name="Table4" displayName="Table4" ref="A1:K42" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11" headerRowBorderDxfId="14" tableBorderDxfId="15" totalsRowBorderDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{0C956D62-76A4-41B5-9364-D5D8EEE96211}" name="Table4" displayName="Table4" ref="A1:K42" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <autoFilter ref="A1:K42" xr:uid="{F8FA3765-FB9F-453E-929A-F318502F00CE}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{89E12C26-B280-49A5-B181-711216DFBA63}" name="Requirement" dataDxfId="10"/>
@@ -1377,7 +1381,7 @@
   <dimension ref="A1:AG51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T4" sqref="T4"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1464,9 +1468,9 @@
         <v>24</v>
       </c>
       <c r="J2" s="5"/>
-      <c r="K2" s="11"/>
+      <c r="K2" s="10"/>
       <c r="W2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:33" ht="45" x14ac:dyDescent="0.25">
@@ -1499,78 +1503,80 @@
       </c>
       <c r="J3" s="7"/>
       <c r="K3" s="5"/>
-      <c r="W3" s="13" t="s">
+      <c r="W3" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="X3" s="13" t="s">
+      <c r="X3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="Y3" s="13" t="s">
+      <c r="Y3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="Z3" s="13" t="s">
+      <c r="Z3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="AA3" s="13" t="s">
+      <c r="AA3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="AB3" s="13" t="s">
+      <c r="AB3" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="AC3" s="13" t="s">
+      <c r="AC3" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="AD3" s="13" t="s">
+      <c r="AD3" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="AE3" s="13" t="s">
+      <c r="AE3" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="AF3" s="14" t="s">
+      <c r="AF3" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="AG3" s="13" t="s">
+      <c r="AG3" s="12" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="4" spans="1:33" ht="135" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:33" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J4" s="9">
-        <v>43571</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>161</v>
-      </c>
+      <c r="E4" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
       <c r="W4" s="6" t="s">
-        <v>53</v>
+        <v>131</v>
       </c>
       <c r="X4" s="6" t="s">
-        <v>2</v>
+        <v>132</v>
       </c>
       <c r="Y4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z4" s="6" t="s">
-        <v>17</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="Z4" s="6"/>
       <c r="AA4" s="6"/>
       <c r="AB4" s="6"/>
       <c r="AC4" s="6"/>
@@ -1578,50 +1584,52 @@
       <c r="AE4" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="AF4" s="9">
-        <v>43571</v>
-      </c>
+      <c r="AF4" s="6"/>
       <c r="AG4" s="6" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="5" spans="1:33" ht="150" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+    <row r="5" spans="1:33" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J5" s="9">
-        <v>43571</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>162</v>
-      </c>
+      <c r="E5" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
       <c r="W5" s="6" t="s">
-        <v>53</v>
+        <v>134</v>
       </c>
       <c r="X5" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Y5" s="6" t="s">
-        <v>4</v>
+        <v>138</v>
       </c>
       <c r="Z5" s="6" t="s">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="AA5" s="6"/>
       <c r="AB5" s="6"/>
@@ -1630,14 +1638,12 @@
       <c r="AE5" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="AF5" s="9">
-        <v>43571</v>
-      </c>
+      <c r="AF5" s="6"/>
       <c r="AG5" s="6" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="6" spans="1:33" ht="135" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>53</v>
       </c>
@@ -1668,15 +1674,17 @@
       <c r="J6" s="7"/>
       <c r="K6" s="5"/>
       <c r="W6" s="6" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="X6" s="6" t="s">
-        <v>132</v>
+        <v>5</v>
       </c>
       <c r="Y6" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="Z6" s="6"/>
+        <v>139</v>
+      </c>
+      <c r="Z6" s="6" t="s">
+        <v>104</v>
+      </c>
       <c r="AA6" s="6"/>
       <c r="AB6" s="6"/>
       <c r="AC6" s="6"/>
@@ -1689,7 +1697,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="7" spans="1:33" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>54</v>
       </c>
@@ -1720,16 +1728,16 @@
       <c r="J7" s="7"/>
       <c r="K7" s="5"/>
       <c r="W7" s="6" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="X7" s="6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Y7" s="6" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="Z7" s="6" t="s">
-        <v>104</v>
+        <v>148</v>
       </c>
       <c r="AA7" s="6"/>
       <c r="AB7" s="6"/>
@@ -1743,7 +1751,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="8" spans="1:33" ht="150" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>54</v>
       </c>
@@ -1773,31 +1781,8 @@
       </c>
       <c r="J8" s="7"/>
       <c r="K8" s="5"/>
-      <c r="W8" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="X8" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y8" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="Z8" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="AA8" s="6"/>
-      <c r="AB8" s="6"/>
-      <c r="AC8" s="6"/>
-      <c r="AD8" s="6"/>
-      <c r="AE8" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="AF8" s="6"/>
-      <c r="AG8" s="6" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33" ht="195" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:33" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>54</v>
       </c>
@@ -1827,29 +1812,6 @@
       </c>
       <c r="J9" s="7"/>
       <c r="K9" s="5"/>
-      <c r="W9" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="X9" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y9" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="Z9" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="AA9" s="6"/>
-      <c r="AB9" s="6"/>
-      <c r="AC9" s="6"/>
-      <c r="AD9" s="6"/>
-      <c r="AE9" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="AF9" s="6"/>
-      <c r="AG9" s="6" t="s">
-        <v>166</v>
-      </c>
     </row>
     <row r="10" spans="1:33" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
@@ -2646,7 +2608,7 @@
       </c>
       <c r="J35" s="6"/>
       <c r="K35" s="8" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="105" x14ac:dyDescent="0.25">
@@ -2733,7 +2695,7 @@
       </c>
       <c r="J38" s="8"/>
       <c r="K38" s="8" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="150" x14ac:dyDescent="0.25">
@@ -2758,7 +2720,7 @@
       </c>
       <c r="J39" s="8"/>
       <c r="K39" s="8" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="165" x14ac:dyDescent="0.25">
@@ -2783,7 +2745,7 @@
       </c>
       <c r="J40" s="8"/>
       <c r="K40" s="8" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="105" x14ac:dyDescent="0.25">
@@ -2838,19 +2800,19 @@
       <c r="H42" s="7"/>
       <c r="I42" s="7"/>
       <c r="J42" s="7"/>
-      <c r="K42" s="12"/>
+      <c r="K42" s="11"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
-      <c r="B48" s="10"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="10"/>
-      <c r="I48" s="10"/>
-      <c r="J48" s="10"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
